--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntf5-Ntrk2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntf5-Ntrk2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,40 +543,40 @@
         <v>2.108393</v>
       </c>
       <c r="I2">
-        <v>0.676637073056764</v>
+        <v>0.4800474766800295</v>
       </c>
       <c r="J2">
-        <v>0.676637073056764</v>
+        <v>0.4800474766800294</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1293823333333333</v>
+        <v>0.8220243333333334</v>
       </c>
       <c r="N2">
-        <v>0.388147</v>
+        <v>2.466073</v>
       </c>
       <c r="O2">
-        <v>0.006916257066299042</v>
+        <v>0.03815249372618141</v>
       </c>
       <c r="P2">
-        <v>0.006916257066299042</v>
+        <v>0.03815249372618141</v>
       </c>
       <c r="Q2">
-        <v>0.09092960197455556</v>
+        <v>0.5777167834098889</v>
       </c>
       <c r="R2">
-        <v>0.8183664177710001</v>
+        <v>5.199451050689</v>
       </c>
       <c r="S2">
-        <v>0.004679795937848745</v>
+        <v>0.01831500834230404</v>
       </c>
       <c r="T2">
-        <v>0.004679795937848745</v>
+        <v>0.01831500834230404</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>2.108393</v>
       </c>
       <c r="I3">
-        <v>0.676637073056764</v>
+        <v>0.4800474766800295</v>
       </c>
       <c r="J3">
-        <v>0.676637073056764</v>
+        <v>0.4800474766800294</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.52590566666667</v>
+        <v>14.52590566666666</v>
       </c>
       <c r="N3">
-        <v>43.577717</v>
+        <v>43.57771699999999</v>
       </c>
       <c r="O3">
-        <v>0.7764962582074056</v>
+        <v>0.6741887099221348</v>
       </c>
       <c r="P3">
-        <v>0.7764962582074056</v>
+        <v>0.6741887099221348</v>
       </c>
       <c r="Q3">
         <v>10.20877260875344</v>
       </c>
       <c r="R3">
-        <v>91.878953478781</v>
+        <v>91.87895347878099</v>
       </c>
       <c r="S3">
-        <v>0.5254061553929882</v>
+        <v>0.3236425890042851</v>
       </c>
       <c r="T3">
-        <v>0.5254061553929882</v>
+        <v>0.3236425890042851</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>2.108393</v>
       </c>
       <c r="I4">
-        <v>0.676637073056764</v>
+        <v>0.4800474766800295</v>
       </c>
       <c r="J4">
-        <v>0.676637073056764</v>
+        <v>0.4800474766800294</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.039673000000001</v>
+        <v>6.197826333333334</v>
       </c>
       <c r="N4">
-        <v>12.119019</v>
+        <v>18.593479</v>
       </c>
       <c r="O4">
-        <v>0.215944605511217</v>
+        <v>0.2876587963516838</v>
       </c>
       <c r="P4">
-        <v>0.215944605511217</v>
+        <v>0.2876587963516837</v>
       </c>
       <c r="Q4">
-        <v>2.839072758496334</v>
+        <v>4.35581788547189</v>
       </c>
       <c r="R4">
-        <v>25.551654826467</v>
+        <v>39.202360969247</v>
       </c>
       <c r="S4">
-        <v>0.1461161258155075</v>
+        <v>0.1380898793334403</v>
       </c>
       <c r="T4">
-        <v>0.1461161258155075</v>
+        <v>0.1380898793334402</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7027976666666667</v>
+        <v>0.341519</v>
       </c>
       <c r="H5">
-        <v>2.108393</v>
+        <v>1.024557</v>
       </c>
       <c r="I5">
-        <v>0.676637073056764</v>
+        <v>0.233275296666637</v>
       </c>
       <c r="J5">
-        <v>0.676637073056764</v>
+        <v>0.233275296666637</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01202633333333333</v>
+        <v>0.8220243333333334</v>
       </c>
       <c r="N5">
-        <v>0.036079</v>
+        <v>2.466073</v>
       </c>
       <c r="O5">
-        <v>0.000642879215078316</v>
+        <v>0.03815249372618141</v>
       </c>
       <c r="P5">
-        <v>0.000642879215078316</v>
+        <v>0.03815249372618141</v>
       </c>
       <c r="Q5">
-        <v>0.008452079005222221</v>
+        <v>0.2807369282956667</v>
       </c>
       <c r="R5">
-        <v>0.076068711047</v>
+        <v>2.526632354661</v>
       </c>
       <c r="S5">
-        <v>0.0004349959104196216</v>
+        <v>0.008900034292546977</v>
       </c>
       <c r="T5">
-        <v>0.0004349959104196216</v>
+        <v>0.008900034292546977</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1401493333333333</v>
+        <v>0.341519</v>
       </c>
       <c r="H6">
-        <v>0.4204479999999999</v>
+        <v>1.024557</v>
       </c>
       <c r="I6">
-        <v>0.1349324836937754</v>
+        <v>0.233275296666637</v>
       </c>
       <c r="J6">
-        <v>0.1349324836937754</v>
+        <v>0.233275296666637</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1293823333333333</v>
+        <v>14.52590566666666</v>
       </c>
       <c r="N6">
-        <v>0.388147</v>
+        <v>43.57771699999999</v>
       </c>
       <c r="O6">
-        <v>0.006916257066299042</v>
+        <v>0.6741887099221348</v>
       </c>
       <c r="P6">
-        <v>0.006916257066299042</v>
+        <v>0.6741887099221348</v>
       </c>
       <c r="Q6">
-        <v>0.01813284776177778</v>
+        <v>4.960872777374332</v>
       </c>
       <c r="R6">
-        <v>0.163195629856</v>
+        <v>44.64785499636899</v>
       </c>
       <c r="S6">
-        <v>0.0009332277438203547</v>
+        <v>0.1572715713163833</v>
       </c>
       <c r="T6">
-        <v>0.0009332277438203547</v>
+        <v>0.1572715713163833</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +838,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.1401493333333333</v>
+        <v>0.341519</v>
       </c>
       <c r="H7">
-        <v>0.4204479999999999</v>
+        <v>1.024557</v>
       </c>
       <c r="I7">
-        <v>0.1349324836937754</v>
+        <v>0.233275296666637</v>
       </c>
       <c r="J7">
-        <v>0.1349324836937754</v>
+        <v>0.233275296666637</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.52590566666667</v>
+        <v>6.197826333333334</v>
       </c>
       <c r="N7">
-        <v>43.577717</v>
+        <v>18.593479</v>
       </c>
       <c r="O7">
-        <v>0.7764962582074056</v>
+        <v>0.2876587963516838</v>
       </c>
       <c r="P7">
-        <v>0.7764962582074056</v>
+        <v>0.2876587963516837</v>
       </c>
       <c r="Q7">
-        <v>2.035795995246222</v>
+        <v>2.116675451533667</v>
       </c>
       <c r="R7">
-        <v>18.322163957216</v>
+        <v>19.050079063803</v>
       </c>
       <c r="S7">
-        <v>0.1047745686988484</v>
+        <v>0.06710369105770676</v>
       </c>
       <c r="T7">
-        <v>0.1047745686988484</v>
+        <v>0.06710369105770675</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,25 +900,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.1401493333333333</v>
+        <v>0.4197003333333333</v>
       </c>
       <c r="H8">
-        <v>0.4204479999999999</v>
+        <v>1.259101</v>
       </c>
       <c r="I8">
-        <v>0.1349324836937754</v>
+        <v>0.2866772266533335</v>
       </c>
       <c r="J8">
-        <v>0.1349324836937754</v>
+        <v>0.2866772266533335</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.039673000000001</v>
+        <v>0.8220243333333334</v>
       </c>
       <c r="N8">
-        <v>12.119019</v>
+        <v>2.466073</v>
       </c>
       <c r="O8">
-        <v>0.215944605511217</v>
+        <v>0.03815249372618141</v>
       </c>
       <c r="P8">
-        <v>0.215944605511217</v>
+        <v>0.03815249372618141</v>
       </c>
       <c r="Q8">
-        <v>0.5661574778346666</v>
+        <v>0.3450038867081111</v>
       </c>
       <c r="R8">
-        <v>5.095417300512</v>
+        <v>3.105034980373</v>
       </c>
       <c r="S8">
-        <v>0.02913794196190106</v>
+        <v>0.01093745109133039</v>
       </c>
       <c r="T8">
-        <v>0.02913794196190106</v>
+        <v>0.01093745109133039</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,55 +962,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.1401493333333333</v>
+        <v>0.4197003333333333</v>
       </c>
       <c r="H9">
-        <v>0.4204479999999999</v>
+        <v>1.259101</v>
       </c>
       <c r="I9">
-        <v>0.1349324836937754</v>
+        <v>0.2866772266533335</v>
       </c>
       <c r="J9">
-        <v>0.1349324836937754</v>
+        <v>0.2866772266533335</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.01202633333333333</v>
+        <v>14.52590566666666</v>
       </c>
       <c r="N9">
-        <v>0.036079</v>
+        <v>43.57771699999999</v>
       </c>
       <c r="O9">
-        <v>0.000642879215078316</v>
+        <v>0.6741887099221348</v>
       </c>
       <c r="P9">
-        <v>0.000642879215078316</v>
+        <v>0.6741887099221348</v>
       </c>
       <c r="Q9">
-        <v>0.001685482599111111</v>
+        <v>6.096527450268555</v>
       </c>
       <c r="R9">
-        <v>0.015169343392</v>
+        <v>54.86874705241699</v>
       </c>
       <c r="S9">
-        <v>8.674528920562203E-05</v>
+        <v>0.1932745496014663</v>
       </c>
       <c r="T9">
-        <v>8.674528920562203E-05</v>
+        <v>0.1932745496014663</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,241 +1024,55 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1957156666666666</v>
+        <v>0.4197003333333333</v>
       </c>
       <c r="H10">
-        <v>0.587147</v>
+        <v>1.259101</v>
       </c>
       <c r="I10">
-        <v>0.1884304432494605</v>
+        <v>0.2866772266533335</v>
       </c>
       <c r="J10">
-        <v>0.1884304432494605</v>
+        <v>0.2866772266533335</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1293823333333333</v>
+        <v>6.197826333333334</v>
       </c>
       <c r="N10">
-        <v>0.388147</v>
+        <v>18.593479</v>
       </c>
       <c r="O10">
-        <v>0.006916257066299042</v>
+        <v>0.2876587963516838</v>
       </c>
       <c r="P10">
-        <v>0.006916257066299042</v>
+        <v>0.2876587963516837</v>
       </c>
       <c r="Q10">
-        <v>0.02532214962322222</v>
+        <v>2.601229778042112</v>
       </c>
       <c r="R10">
-        <v>0.227899346609</v>
+        <v>23.411068002379</v>
       </c>
       <c r="S10">
-        <v>0.001303233384629942</v>
+        <v>0.08246522596053676</v>
       </c>
       <c r="T10">
-        <v>0.001303233384629942</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.1957156666666666</v>
-      </c>
-      <c r="H11">
-        <v>0.587147</v>
-      </c>
-      <c r="I11">
-        <v>0.1884304432494605</v>
-      </c>
-      <c r="J11">
-        <v>0.1884304432494605</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>14.52590566666667</v>
-      </c>
-      <c r="N11">
-        <v>43.577717</v>
-      </c>
-      <c r="O11">
-        <v>0.7764962582074056</v>
-      </c>
-      <c r="P11">
-        <v>0.7764962582074056</v>
-      </c>
-      <c r="Q11">
-        <v>2.842947311488778</v>
-      </c>
-      <c r="R11">
-        <v>25.586525803399</v>
-      </c>
-      <c r="S11">
-        <v>0.146315534115569</v>
-      </c>
-      <c r="T11">
-        <v>0.146315534115569</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.1957156666666666</v>
-      </c>
-      <c r="H12">
-        <v>0.587147</v>
-      </c>
-      <c r="I12">
-        <v>0.1884304432494605</v>
-      </c>
-      <c r="J12">
-        <v>0.1884304432494605</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>4.039673000000001</v>
-      </c>
-      <c r="N12">
-        <v>12.119019</v>
-      </c>
-      <c r="O12">
-        <v>0.215944605511217</v>
-      </c>
-      <c r="P12">
-        <v>0.215944605511217</v>
-      </c>
-      <c r="Q12">
-        <v>0.7906272943103334</v>
-      </c>
-      <c r="R12">
-        <v>7.115645648793</v>
-      </c>
-      <c r="S12">
-        <v>0.04069053773380851</v>
-      </c>
-      <c r="T12">
-        <v>0.04069053773380852</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.1957156666666666</v>
-      </c>
-      <c r="H13">
-        <v>0.587147</v>
-      </c>
-      <c r="I13">
-        <v>0.1884304432494605</v>
-      </c>
-      <c r="J13">
-        <v>0.1884304432494605</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.01202633333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.036079</v>
-      </c>
-      <c r="O13">
-        <v>0.000642879215078316</v>
-      </c>
-      <c r="P13">
-        <v>0.000642879215078316</v>
-      </c>
-      <c r="Q13">
-        <v>0.002353741845888889</v>
-      </c>
-      <c r="R13">
-        <v>0.021183676613</v>
-      </c>
-      <c r="S13">
-        <v>0.0001211380154530723</v>
-      </c>
-      <c r="T13">
-        <v>0.0001211380154530724</v>
+        <v>0.08246522596053672</v>
       </c>
     </row>
   </sheetData>
